--- a/database/internal/marginlist_20210208.xlsx
+++ b/database/internal/marginlist_20210208.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiepdang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiepdang\PycharmProjects\DataAnalytics\database\internal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="450" windowWidth="21600" windowHeight="9735"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="900" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -1608,7 +1608,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
